--- a/modelo_indicadores/g4_comparativo_faturamento_mes_combo.xlsx
+++ b/modelo_indicadores/g4_comparativo_faturamento_mes_combo.xlsx
@@ -406,7 +406,7 @@
   </sheetViews>
   <cols>
     <col min="1" max="1" width="8.83203125" customWidth="1"/>
-    <col min="2" max="2" width="45.83203125" customWidth="1"/>
+    <col min="2" max="2" width="40.83203125" customWidth="1"/>
     <col min="3" max="3" width="15.83203125" customWidth="1"/>
     <col min="4" max="4" width="15.83203125" customWidth="1"/>
     <col min="5" max="5" width="12.83203125" customWidth="1"/>
@@ -444,7 +444,7 @@
         <v>combo</v>
       </c>
       <c r="D2" t="str">
-        <v>currency</v>
+        <v>number</v>
       </c>
       <c r="E2" t="str">
         <v>2 colunas</v>
@@ -468,7 +468,7 @@
   </sheetViews>
   <cols>
     <col min="1" max="1" width="12.83203125" customWidth="1"/>
-    <col min="2" max="2" width="30.83203125" customWidth="1"/>
+    <col min="2" max="2" width="20.83203125" customWidth="1"/>
     <col min="3" max="3" width="15.83203125" customWidth="1"/>
     <col min="4" max="4" width="15.83203125" customWidth="1"/>
     <col min="5" max="5" width="15.83203125" customWidth="1"/>
@@ -534,40 +534,40 @@
       <c r="B2" t="str">
         <v>Faturamento Contratado</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="str">
         <v>2129865.09</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="str">
         <v>9457954.52</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="str">
         <v>11211936.75</v>
       </c>
-      <c r="F2">
+      <c r="F2" t="str">
         <v>8262338.15</v>
       </c>
-      <c r="G2">
+      <c r="G2" t="str">
         <v>11304130.34</v>
       </c>
-      <c r="H2">
+      <c r="H2" t="str">
         <v>15653075.86</v>
       </c>
-      <c r="I2">
+      <c r="I2" t="str">
         <v>19253061.11</v>
       </c>
-      <c r="J2">
+      <c r="J2" t="str">
         <v>24540754.91</v>
       </c>
-      <c r="K2">
+      <c r="K2" t="str">
         <v>23931674.1</v>
       </c>
-      <c r="L2">
+      <c r="L2" t="str">
         <v>31469128.71</v>
       </c>
-      <c r="M2">
+      <c r="M2" t="str">
         <v>27907799.72</v>
       </c>
-      <c r="N2">
+      <c r="N2" t="str">
         <v>33302632.57</v>
       </c>
     </row>
@@ -578,40 +578,40 @@
       <c r="B3" t="str">
         <v>Faturamento Real</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="str">
         <v>3895831.63</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="str">
         <v>4918031.37</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="str">
         <v>7205905.36</v>
       </c>
-      <c r="F3">
+      <c r="F3" t="str">
         <v>4301091.22</v>
       </c>
-      <c r="G3">
+      <c r="G3" t="str">
         <v>4433164.41</v>
       </c>
-      <c r="H3">
+      <c r="H3" t="str">
         <v>5623704.78</v>
       </c>
-      <c r="I3">
+      <c r="I3" t="str">
         <v>5529368.69</v>
       </c>
-      <c r="J3">
+      <c r="J3" t="str">
         <v>12715598.51</v>
       </c>
-      <c r="K3">
+      <c r="K3" t="str">
         <v>13929117.72</v>
       </c>
-      <c r="L3">
+      <c r="L3" t="str">
         <v>15887361.31</v>
       </c>
-      <c r="M3">
+      <c r="M3" t="str">
         <v>17326931.71</v>
       </c>
-      <c r="N3">
+      <c r="N3" t="str">
         <v>20974981.94</v>
       </c>
     </row>
@@ -622,40 +622,40 @@
       <c r="B4" t="str">
         <v>Faturamento Contratado Acumulado</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="str">
         <v>2129865.09</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="str">
         <v>11587819.61</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="str">
         <v>22799756.36</v>
       </c>
-      <c r="F4">
+      <c r="F4" t="str">
         <v>31062094.51</v>
       </c>
-      <c r="G4">
+      <c r="G4" t="str">
         <v>42366224.85</v>
       </c>
-      <c r="H4">
+      <c r="H4" t="str">
         <v>58019300.71</v>
       </c>
-      <c r="I4">
+      <c r="I4" t="str">
         <v>77272361.82</v>
       </c>
-      <c r="J4">
+      <c r="J4" t="str">
         <v>101813116.73</v>
       </c>
-      <c r="K4">
+      <c r="K4" t="str">
         <v>125744790.84</v>
       </c>
-      <c r="L4">
+      <c r="L4" t="str">
         <v>157213919.55</v>
       </c>
-      <c r="M4">
+      <c r="M4" t="str">
         <v>185121719.27</v>
       </c>
-      <c r="N4">
+      <c r="N4" t="str">
         <v>218424351.84</v>
       </c>
     </row>
@@ -666,40 +666,40 @@
       <c r="B5" t="str">
         <v>Faturamento Real Acumulado</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="str">
         <v>3895831.63</v>
       </c>
       <c r="D5" t="str">
         <v>8813863</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="str">
         <v>16019768.36</v>
       </c>
-      <c r="F5">
+      <c r="F5" t="str">
         <v>20320859.58</v>
       </c>
-      <c r="G5">
+      <c r="G5" t="str">
         <v>24754023.99</v>
       </c>
-      <c r="H5">
+      <c r="H5" t="str">
         <v>30377728.77</v>
       </c>
-      <c r="I5">
+      <c r="I5" t="str">
         <v>35907097.46</v>
       </c>
-      <c r="J5">
+      <c r="J5" t="str">
         <v>48622695.97</v>
       </c>
-      <c r="K5">
+      <c r="K5" t="str">
         <v>62551813.69</v>
       </c>
       <c r="L5" t="str">
         <v>78439175</v>
       </c>
-      <c r="M5">
+      <c r="M5" t="str">
         <v>95766106.71</v>
       </c>
-      <c r="N5">
+      <c r="N5" t="str">
         <v>116741088.65</v>
       </c>
     </row>
@@ -718,11 +718,12 @@
   </sheetViews>
   <cols>
     <col min="1" max="1" width="12.83203125" customWidth="1"/>
-    <col min="2" max="2" width="35.83203125" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" customWidth="1"/>
-    <col min="4" max="4" width="8.83203125" customWidth="1"/>
+    <col min="2" max="2" width="20.83203125" customWidth="1"/>
+    <col min="3" max="3" width="20.83203125" customWidth="1"/>
+    <col min="4" max="4" width="15.83203125" customWidth="1"/>
     <col min="5" max="5" width="12.83203125" customWidth="1"/>
-    <col min="6" max="6" width="15.83203125" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" customWidth="1"/>
+    <col min="7" max="7" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -866,11 +867,11 @@
       <c r="B2" t="str">
         <v>Esquerdo</v>
       </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>40000000</v>
+      <c r="C2" t="str">
+        <v/>
+      </c>
+      <c r="D2" t="str">
+        <v/>
       </c>
     </row>
     <row r="3">
@@ -880,11 +881,11 @@
       <c r="B3" t="str">
         <v>Direito</v>
       </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>300000000</v>
+      <c r="C3" t="str">
+        <v/>
+      </c>
+      <c r="D3" t="str">
+        <v/>
       </c>
     </row>
   </sheetData>
